--- a/99_review/review1/06_レビュー結果記録(第3反復計画立案).xlsx
+++ b/99_review/review1/06_レビュー結果記録(第3反復計画立案).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23007"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34DE68C-0BED-43B8-8E88-BA1BBBB36471}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{D34DE68C-0BED-43B8-8E88-BA1BBBB36471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA1A8096-E574-423C-B6E4-5D495BE860F4}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="225" windowWidth="15045" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="225" windowWidth="15045" windowHeight="10185" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -13,12 +13,14 @@
     <sheet name="概要サンプル" sheetId="4" r:id="rId3"/>
     <sheet name="レビュー結果サンプル" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,9 +28,278 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+  <si>
+    <t>会議名</t>
+    <rPh sb="0" eb="2">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所</t>
+    <rPh sb="0" eb="2">
+      <t>バショカイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復2 第6回レビュー</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/06/10 (水)
+15:05-15:20</t>
+    <rPh sb="12" eb="13">
+      <t>スイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RoomA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席者</t>
+    <rPh sb="0" eb="3">
+      <t>シュッセキシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畔上講師、今村、落合、鈴木、竹田、長嶺</t>
+    <rPh sb="0" eb="2">
+      <t>アゼガミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イマムラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オチアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タケダ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナガミネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書記</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畔上講師</t>
+    <rPh sb="0" eb="2">
+      <t>アゼガミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今村</t>
+    <rPh sb="0" eb="2">
+      <t>イマムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工程</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開催目的</t>
+    <rPh sb="0" eb="2">
+      <t>カイサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計画立案</t>
+  </si>
+  <si>
+    <t>第3反復の要求分析へ移行するための課題・対応策を明確にする(合格)</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>メイカク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー対象</t>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指摘件数</t>
+    <rPh sb="0" eb="2">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落合、鈴木、長嶺</t>
+    <rPh sb="0" eb="1">
+      <t>ラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WBSガントチャート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今村、竹田、長嶺</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総指摘件数</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象成果物</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セイカブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発言の種類</t>
+    <rPh sb="0" eb="2">
+      <t>ハツゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発言内容</t>
+    <rPh sb="0" eb="2">
+      <t>ハツゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発言者</t>
+    <rPh sb="0" eb="3">
+      <t>ハツゲンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答または対策</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイサク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -42,214 +313,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>発言者</t>
-    <rPh sb="0" eb="3">
-      <t>ハツゲンシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回答または対策</t>
-    <rPh sb="0" eb="2">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山田</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指摘</t>
-  </si>
-  <si>
-    <t>対象成果物</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>セイカブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会議名</t>
-    <rPh sb="0" eb="2">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日時</t>
-    <rPh sb="0" eb="2">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開催目的</t>
-    <rPh sb="0" eb="2">
-      <t>カイサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>モクテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出席者</t>
-    <rPh sb="0" eb="3">
-      <t>シュッセキシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー対象</t>
-    <rPh sb="4" eb="6">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指摘件数</t>
-    <rPh sb="0" eb="2">
-      <t>シテキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>構造化分析</t>
-  </si>
-  <si>
-    <t>プロセス「2.2発注する」がデータ「発注商品」を加工していない</t>
-  </si>
-  <si>
-    <t>DFD2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロセス「2.2発注する」の粒度を見直す</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田口</t>
-    <rPh sb="0" eb="2">
-      <t>タグチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田中、山田、藤田、田口</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>構造化設計へ移行するための課題・対応策を明確にする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビューア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山田、藤田</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>フジタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>総指摘件数</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>シテキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DFD2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロセス仕様「2.1 補充発注する」</t>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロセス仕様「2.2 検収する」</t>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田中</t>
-    <rPh sb="0" eb="2">
-      <t>タナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>書記</t>
-    <rPh sb="0" eb="2">
-      <t>ショキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>工程</t>
-    <rPh sb="0" eb="2">
-      <t>コウテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発言の種類</t>
-    <rPh sb="0" eb="2">
-      <t>ハツゲン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発言内容</t>
-    <rPh sb="0" eb="2">
-      <t>ハツゲン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>反復計画書</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>特に指摘なし</t>
+  </si>
+  <si>
+    <t>畔上</t>
+  </si>
+  <si>
+    <t>変更なし</t>
+  </si>
+  <si>
+    <t>WBS&amp;ガントチャート</t>
   </si>
   <si>
     <t>反復1 第2回レビュー</t>
@@ -262,17 +341,6 @@
     <rPh sb="6" eb="7">
       <t>カイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>場所</t>
-    <rPh sb="0" eb="2">
-      <t>バショカイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Florida</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -284,129 +352,77 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>今村</t>
+    <t>Florida</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中、山田、藤田、田口</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田、藤田</t>
     <rPh sb="0" eb="2">
-      <t>イマムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反復2 第6回レビュー</t>
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フジタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田口</t>
     <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020/06/10 (水)
-15:05-15:20</t>
-    <rPh sb="12" eb="13">
-      <t>スイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RoomA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計画立案</t>
-  </si>
-  <si>
-    <t>反復計画書</t>
+      <t>タグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造化分析</t>
+  </si>
+  <si>
+    <t>構造化設計へ移行するための課題・対応策を明確にする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DFD2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中</t>
     <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ケイカクショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WBSガントチャート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>落合、鈴木、長嶺</t>
-    <rPh sb="0" eb="1">
-      <t>ラク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今村、竹田、長嶺</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>畔上講師</t>
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス仕様「2.1 補充発注する」</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス仕様「2.2 検収する」</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指摘</t>
+  </si>
+  <si>
+    <t>プロセス「2.2発注する」がデータ「発注商品」を加工していない</t>
+  </si>
+  <si>
+    <t>山田</t>
     <rPh sb="0" eb="2">
-      <t>アゼガミ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>畔上講師、今村、落合、鈴木、竹田、長嶺</t>
-    <rPh sb="0" eb="2">
-      <t>アゼガミ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イマムラ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>オチアイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タケダ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ナガミネ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第3反復の要求分析へ移行するための課題・対応策を明確にする(合格)</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>サク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>メイカク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ゴウカク</t>
-    </rPh>
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス「2.2発注する」の粒度を見直す</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -414,7 +430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -754,92 +770,92 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,7 +983,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1290,11 +1306,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
@@ -1302,181 +1318,192 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="7" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="32"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-    </row>
-    <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="4" t="s">
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="D11" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="17" t="s">
+    <row r="12" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" thickBot="1">
+      <c r="C20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="18" t="str">
+      <c r="D20" s="16" t="str">
         <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1487,17 +1514,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1517,11 +1533,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F28" sqref="F26:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
@@ -1531,72 +1547,94 @@
     <col min="6" max="6" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="9">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="10">
+      <c r="B3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="9">
         <v>43992</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="19"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="10">
-        <v>43992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="19"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="10">
-        <v>43992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1605,7 +1643,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1614,7 +1652,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1623,7 +1661,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1632,7 +1670,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1641,7 +1679,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1650,7 +1688,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1659,7 +1697,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1668,7 +1706,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1677,7 +1715,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1686,7 +1724,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1695,7 +1733,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1704,7 +1742,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1713,7 +1751,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1722,7 +1760,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1731,7 +1769,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1740,7 +1778,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1749,7 +1787,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1781,7 +1819,7 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -1789,188 +1827,200 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1">
+      <c r="A8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="32"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-    </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="16">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="16">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="16">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="17" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" thickBot="1">
+      <c r="C20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="16">
         <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -1980,18 +2030,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2015,7 +2053,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -2025,53 +2063,53 @@
     <col min="6" max="6" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" ht="59.25" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="10">
+        <v>52</v>
+      </c>
+      <c r="G2" s="9">
         <v>40686</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2080,7 +2118,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2089,7 +2127,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2098,7 +2136,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2107,7 +2145,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2116,7 +2154,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2125,7 +2163,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2134,7 +2172,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2143,7 +2181,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2152,7 +2190,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2161,7 +2199,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2170,7 +2208,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2179,7 +2217,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2188,7 +2226,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2197,7 +2235,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2206,7 +2244,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2215,7 +2253,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2224,7 +2262,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2233,7 +2271,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2242,7 +2280,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2251,7 +2289,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2276,21 +2314,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2474,44 +2497,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C08279E1-C0AF-422B-953F-A47D1BFA3011}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C08279E1-C0AF-422B-953F-A47D1BFA3011}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}"/>
 </file>
--- a/99_review/review1/06_レビュー結果記録(第3反復計画立案).xlsx
+++ b/99_review/review1/06_レビュー結果記録(第3反復計画立案).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{D34DE68C-0BED-43B8-8E88-BA1BBBB36471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA1A8096-E574-423C-B6E4-5D495BE860F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540E47BB-9D41-48CE-8864-EC46775EAC73}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="225" windowWidth="15045" windowHeight="10185" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8820" yWindow="0" windowWidth="11505" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -13,14 +13,12 @@
     <sheet name="概要サンプル" sheetId="4" r:id="rId3"/>
     <sheet name="レビュー結果サンプル" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -54,19 +52,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>反復2 第6回レビュー</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2020/06/10 (水)
 15:05-15:20</t>
     <rPh sb="12" eb="13">
@@ -423,6 +408,19 @@
   </si>
   <si>
     <t>プロセス「2.2発注する」の粒度を見直す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復3 第1回レビュー</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -430,7 +428,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -812,6 +810,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -824,38 +849,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,7 +981,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1306,11 +1304,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
@@ -1318,11 +1316,11 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1330,161 +1328,161 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="24" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A4" s="27" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="20" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A6" s="22" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="24" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="30" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="D10" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="D11" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
+    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
+    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1">
+    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C20" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="16" t="str">
         <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
@@ -1493,17 +1491,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1514,6 +1501,17 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1533,11 +1531,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F28" sqref="F26:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
@@ -1547,76 +1545,76 @@
     <col min="6" max="6" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G2" s="9">
         <v>43992</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G3" s="9">
         <v>43992</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -1625,7 +1623,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -1634,7 +1632,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1643,7 +1641,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1652,7 +1650,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1661,7 +1659,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1670,7 +1668,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1679,7 +1677,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1688,7 +1686,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1697,7 +1695,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1706,7 +1704,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1715,7 +1713,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1724,7 +1722,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1733,7 +1731,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1742,7 +1740,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1751,7 +1749,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1760,7 +1758,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1769,7 +1767,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1778,7 +1776,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1787,7 +1785,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1819,7 +1817,7 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -1827,11 +1825,11 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1839,168 +1837,168 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A4" s="27" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A6" s="22" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="30" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="D10" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A11" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="31"/>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="23"/>
       <c r="C11" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A12" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="31"/>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="23"/>
       <c r="C12" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
+    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1">
+    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C20" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="16">
         <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
@@ -2009,18 +2007,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -2030,6 +2016,18 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2053,7 +2051,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -2063,53 +2061,53 @@
     <col min="6" max="6" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="59.25" customHeight="1">
+    </row>
+    <row r="2" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="G2" s="9">
         <v>40686</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2118,7 +2116,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2127,7 +2125,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2136,7 +2134,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2145,7 +2143,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2154,7 +2152,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2163,7 +2161,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2172,7 +2170,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2181,7 +2179,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2190,7 +2188,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2199,7 +2197,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2208,7 +2206,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2217,7 +2215,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2226,7 +2224,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2235,7 +2233,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2244,7 +2242,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2253,7 +2251,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2262,7 +2260,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2271,7 +2269,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2280,7 +2278,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2289,7 +2287,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2314,6 +2312,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2497,29 +2510,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C08279E1-C0AF-422B-953F-A47D1BFA3011}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C08279E1-C0AF-422B-953F-A47D1BFA3011}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>